--- a/獎學金爬蟲及資料整理儲存/scholarship.xlsx
+++ b/獎學金爬蟲及資料整理儲存/scholarship.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="397">
   <si>
     <t>代碼錄取名額</t>
   </si>
@@ -34,9 +34,6 @@
     <t>E92  (15名)</t>
   </si>
   <si>
-    <t>E66-1  (223名)</t>
-  </si>
-  <si>
     <t>E370  (40名)</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>E288  (名)</t>
   </si>
   <si>
-    <t>G14  (名)</t>
-  </si>
-  <si>
     <t>E01  (50名)</t>
   </si>
   <si>
@@ -175,6 +169,96 @@
     <t>D02  (50名)</t>
   </si>
   <si>
+    <t>A43  (名)</t>
+  </si>
+  <si>
+    <t>D118  (30名)</t>
+  </si>
+  <si>
+    <t>E307  (12名)</t>
+  </si>
+  <si>
+    <t>A29  (12名)</t>
+  </si>
+  <si>
+    <t>D14  (30名)</t>
+  </si>
+  <si>
+    <t>E247  (3名)</t>
+  </si>
+  <si>
+    <t>E74  (名)</t>
+  </si>
+  <si>
+    <t>E67  (3名)</t>
+  </si>
+  <si>
+    <t>E46  (15名)</t>
+  </si>
+  <si>
+    <t>D09  (120名)</t>
+  </si>
+  <si>
+    <t>E902  (2名)</t>
+  </si>
+  <si>
+    <t>E146  (5名)</t>
+  </si>
+  <si>
+    <t>G03  (2名)</t>
+  </si>
+  <si>
+    <t>B104  (2名)</t>
+  </si>
+  <si>
+    <t>C32  (8名)</t>
+  </si>
+  <si>
+    <t>E253  (10名)</t>
+  </si>
+  <si>
+    <t>D30  (名)</t>
+  </si>
+  <si>
+    <t>D12  (1名)</t>
+  </si>
+  <si>
+    <t>D15  (50名)</t>
+  </si>
+  <si>
+    <t>D116  (50名)</t>
+  </si>
+  <si>
+    <t>D16  (355名)</t>
+  </si>
+  <si>
+    <t>A35  (12名)</t>
+  </si>
+  <si>
+    <t>E169  (名)</t>
+  </si>
+  <si>
+    <t>E165  (31名)</t>
+  </si>
+  <si>
+    <t>E06  (152名)</t>
+  </si>
+  <si>
+    <t>E26  (30名)</t>
+  </si>
+  <si>
+    <t>E248  (100名)</t>
+  </si>
+  <si>
+    <t>A22A  (名)</t>
+  </si>
+  <si>
+    <t>E76  (29名)</t>
+  </si>
+  <si>
+    <t>D07  (30名)</t>
+  </si>
+  <si>
     <t>獎學金名稱</t>
   </si>
   <si>
@@ -196,9 +280,6 @@
     <t>中技社--科技獎學金</t>
   </si>
   <si>
-    <t>罕見疾病獎助學金</t>
-  </si>
-  <si>
     <t>財團法人崇友文教基金會</t>
   </si>
   <si>
@@ -217,9 +298,6 @@
     <t>中華民國群園關懷協會經濟弱勢家庭助學計畫</t>
   </si>
   <si>
-    <t>台港教育交流基金</t>
-  </si>
-  <si>
     <t>慈暉文教基金會優秀清寒獎學金</t>
   </si>
   <si>
@@ -337,6 +415,96 @@
     <t>宜蘭縣政府獎學金</t>
   </si>
   <si>
+    <t>台灣電力公司獎學金</t>
+  </si>
+  <si>
+    <t>毛毅先生榮民子女獎助學金</t>
+  </si>
+  <si>
+    <t>屏東救國團公益基金會獎學金</t>
+  </si>
+  <si>
+    <t>中央研究院周鴻經獎學金</t>
+  </si>
+  <si>
+    <t>苗栗縣政府獎學金</t>
+  </si>
+  <si>
+    <t>財團法人教育部接受捐助獎學基金會</t>
+  </si>
+  <si>
+    <t>陽光社會福利獎學金</t>
+  </si>
+  <si>
+    <t>宗倬章先生獎學金</t>
+  </si>
+  <si>
+    <t>宋映潭先生文教基金會獎學金</t>
+  </si>
+  <si>
+    <t>台南市政府獎學金</t>
+  </si>
+  <si>
+    <t>優久大學聯盟國際崇她台北二社路宋友慈獎學金</t>
+  </si>
+  <si>
+    <t>英士獎學金</t>
+  </si>
+  <si>
+    <t>華僑協會僑生獎助學金</t>
+  </si>
+  <si>
+    <t>大和何溪明優秀清寒獎學金</t>
+  </si>
+  <si>
+    <t>熱河省同鄉會獎學金</t>
+  </si>
+  <si>
+    <t>鄭品聰先生文教基金會獎助學金</t>
+  </si>
+  <si>
+    <t>行政院原住民獎學金</t>
+  </si>
+  <si>
+    <t>新竹縣政府獎學金</t>
+  </si>
+  <si>
+    <t>南投縣政府獎學金</t>
+  </si>
+  <si>
+    <t>金門地區獎學金</t>
+  </si>
+  <si>
+    <t>高雄市政府獎學金</t>
+  </si>
+  <si>
+    <t>錫綬獎學金</t>
+  </si>
+  <si>
+    <t>財團法人賑災基金會助學金</t>
+  </si>
+  <si>
+    <t>中興工程顧問社優秀勤學獎學金</t>
+  </si>
+  <si>
+    <t>黎明文化事業獎學金</t>
+  </si>
+  <si>
+    <t>劉羅柳氏獎學金</t>
+  </si>
+  <si>
+    <t>財團法人國際單親兒童文教基金會清寒獎學金</t>
+  </si>
+  <si>
+    <t>台北北區扶輪社獎學金</t>
+  </si>
+  <si>
+    <t>白曉燕文教獎學金</t>
+  </si>
+  <si>
+    <t>嘉義縣政府獎學金</t>
+  </si>
+  <si>
     <t>截止日期</t>
   </si>
   <si>
@@ -358,9 +526,6 @@
     <t>2020-09-03</t>
   </si>
   <si>
-    <t>2020-08-28</t>
-  </si>
-  <si>
     <t>2020-10-12</t>
   </si>
   <si>
@@ -373,9 +538,6 @@
     <t>2020-09-18</t>
   </si>
   <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
     <t>2020-09-10</t>
   </si>
   <si>
@@ -400,6 +562,21 @@
     <t>2020-10-20</t>
   </si>
   <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
     <t>獎學金金額</t>
   </si>
   <si>
@@ -451,6 +628,27 @@
     <t>6000</t>
   </si>
   <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>48000</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
     <t>學業成績</t>
   </si>
   <si>
@@ -511,6 +709,9 @@
     <t>大學部一般類</t>
   </si>
   <si>
+    <t>大學部研究所清寒類</t>
+  </si>
+  <si>
     <t>申請資格</t>
   </si>
   <si>
@@ -529,9 +730,6 @@
     <t>1.名額及金額：7~15名(隊)；每名(隊)新臺幣壹拾伍萬元及獎狀乙紙。(團隊獎金之分配由或獎團隊自行決定，獎狀每人乙紙)。 2.國內教育部認可之大學校院大學三年級(含)以上及碩士班學生(以個人或組成團隊方式申請)。 3.評審重點：著重於個人(或團體)之創意性及未來之發展潛力。 **欲申請者：請備妥相關文件於7月1日~9月3日送至生輔組</t>
   </si>
   <si>
-    <t>為本會服務罕見疾病病類之病友，並登記為本會螢火蟲家族會員者（罕見疾病病友得隨時申請入會）。 今年共有九類獎項，一人限擇一類獎項申請，若曾獲得基金會的獎助學金，兩年內不得重覆申請該獎項，唯【奮發向上助學金】可隔一年及【金榜題名獎學金】可不受年限之限制。 ※初次申請者務必檢附診斷證明書。 獎項 （一）奮發向上（清寒）助學金 10,000元，40名 （二）成績優良獎學金 7,000元，30名 （三）認真負責獎學金 5,000元，35名 （四）傑出才藝獎學金 5,000元，30名 （五）病友進修助學金 5,000元， 5名 （六）金榜題名獎學金 8,000元，30名 （七）罕病子女獎學金 5,000元，30名 （八）友善扶持獎學金 5,000元，30名 （九）國際進修獎學金 30,000元，3名 **本獎學金獎項眾多，詳細請參考該基金會網頁，查詢相關辦法及下載申請表格。 http://www.tfrd.org.tw/tfrd/service_c/main/category_id/1</t>
-  </si>
-  <si>
     <t>1.就讀國內大專院校電機、機械、建築、土木營造相關科系，一、二年級日間部在學學生。 2.前一學期學業成績平均需達75分以上並在班上排名為前百分之二十，無不及格科目。 3.操行成績在80分以上，無任何小過以上懲處紀錄。 4.家庭經濟弱勢，具下列條件之一者。 (1) 低收入戶、中低收入戶、家境清寒者。 (2) 家庭或個人因天災、意外發生急難變故或其他特殊狀況，以致家中經濟失依者。 5.無領取其他企業約定實習就業等義務性質獎學金。 ※此次申請以108學年度第2學期成績為審查標準，故符合資格者為109學年度二年級之在學學生</t>
   </si>
   <si>
@@ -550,9 +748,6 @@
     <t>(一) 補助對象： 具中華民國身份且經教育部認可之各公私立大學院校在學優秀清寒學生。（不含滿 26 歲以上、研究所、延修、軍警校、推廣教育、空中大學、進修部學生） (二) 申請資格： 於修業年限內，操行80分以上（含 80分）、學業成績平均70分以上（含70 分）學生。(大一提供高三之在學成績)。 **申請人至群園助學系統填寫申請表、以及行動紀事線上送出資料後，將行動紀事紙本與以下檢附申請文件，於申請期限內以郵寄、親送等方式提出。</t>
   </si>
   <si>
-    <t>申請資格: 於香港專上院校修讀大學或大學以上學位或交換學位之台灣學生(至少一學年度)，具有中華民國國籍者；以及赴台灣大學院校修讀大學或大學以上學位或交換學位之香港學生(至少一學年度)，具有香港永久居民身分者，可依本要點申請獎助學金。 申請條件: 符合申請資格且具備下列條件者，得依本要點提出申請： 1. 台灣留港學生 （1）學業成績GPA達2.8以上者。 （2）在香港就學期間對國際交流、台港交流、社區發展有特殊表現及貢獻者。 2. 香港留台學生 （1）今(2020)學年度入學新生，香港中學文憑考試（DSE）各科平均成績達3級或以上者(本項為優予考量指標，亦可不提供)。 （2）其餘在校學生，需為在台灣大學院校學期成績GPA達2.8以上者。 （3）在台灣就學期間對國際交流、台港交流、社區發展有特殊表現及貢獻者。</t>
-  </si>
-  <si>
     <t>1.設籍台北市或新北市滿一年以上 2.國內公私立大學以上院校在學學生 3.前一學年上下學期在校學業成績平均80分以上且操行優良 4家庭持有前一年度市政府冊列之中低收入戶或低收入戶證明</t>
   </si>
   <si>
@@ -673,6 +868,96 @@
     <t>申請資格： （一）設籍宜蘭縣，並在國內大學、獨立院校、專科學校及高中(職)校之學生(不含夜校、補校、研究所、實習生、在職進修及空中大學之學生)。 （二）學業平均成績、操性成績需80分以上。 （三）一年級新生於第二學期起始可申請，畢業當學期成績不得申請。 名額及金額： （一）本獎學金核定名額每學期大學(專)50名，每名6,000元。 （二）前項名額，低收入戶或身心障礙學生優先錄取，各組均以30名為限，餘各組20名分配予一般優秀學生。 申請方式： （一）本獎學金僅開放網路申請(以其他方式申請者，不予受理)，請至宜蘭縣教育資訊網(http://www.ilc.edu.tw)全文檢索輸入獎學金申請(首頁右側) （二）或至http://rff.ilc.edu.tw/prise/網址登錄申請。 （三）開放網路申請日期為本(109)年9月1日起至9月20日下午五點止。 （四）申請人如為提出「中低收入戶」證明者，申請組別應點選為「一般組」。</t>
   </si>
   <si>
+    <t>(一)就讀於教育部核准立案之國內公私立大學校院在學學生，畢業後志願前來本公司 服務者，惟任何在職進修或專班以及本公司現職或留資停薪人員均不得申請。 (二)申請時之前 2 學期學業成績每科均須及格，且須符合以下條件之一：(1)前 2 學期 之各學期平均學業成績在 75 分以上 (2)名次排列在班上前三分之一以內。 (三)畢業後除義務役之兵役外無其他服務義務者，且不得選服研發替代役或轉服志願 役。 (四)無不得進用為國營事業人員情形之一者(詳細請查閱網頁說明)。 ※金額 (一)大學部：每學期核給新臺幣 4 萬元整。 (二)研究所：每學期核給新臺幣 5 萬元整。</t>
+  </si>
+  <si>
+    <t>（一）設籍「臺東縣」凡支領一次退伍金、固定給與、資助金、無給退除且未領軍公教子女教育補助費之榮民、遺眷子女、「戰訓或因公殞命」之國軍遺族之子女及「領取半俸」之榮民遺眷子女。 (二)排除對象： 1.公費生、重修生、延修生、延畢生、推廣教育學分班或夜間部學生。 2.榮民或配偶任公職或在學榮民子女本人為現役軍人、榮民、公務人員身分者，均不合申請資格。 （三）戶籍條件：凡設籍臺東縣6個月以上，現為國內公私立大專校院肄業之清寒學生。 （四）學業成績：學年學業成績平均75分以上，操行成績(或綜合表現)80分以上。 （五）其他條件：申請人合於上述條件（且無任何一科不及格），惟限於設定名額，具清寒家庭子女證明(低或中低收入戶證明書或教師開立證明)者為優先獎助對象，餘以學業成績高低依序核發；若學業成績同分時，以操行成績(或綜合表現)為排序標準。</t>
+  </si>
+  <si>
+    <t>(一)凡戶籍設籍在屏東縣一年以上之大學校院在學學生且家境清寒(低收入戶証明) ，或經學校師長証明經濟弱勢者足以推薦。（不含公費生、在職專班、推廣教育、特教生）。 (二)申請學生其前學年度學業成績須80分，且未受記過處分者；如學業成績雖未達80分(需75分以上)但清寒者且經師長極力推薦，如確屬優秀表現者又符合上述申請資格(一)點者，亦可推薦。 (三)未同時領取其他單位獎學金者。</t>
+  </si>
+  <si>
+    <t>1.凡公私立大學或學院之數學系三年級以上學生或數學研究所之研究生， 數學成績優異者均可申請。 2.本獎學金暫定12名，每名每年暫定新臺幣4萬元。 3.本獎學金之審核由本院數學研究所組織委員會行之，必要時得舉行面試，其 結果於每年12月1日發表。獎學金於12月及3月各付給總數之半。</t>
+  </si>
+  <si>
+    <t>凡設籍苗栗縣六個月以上，現就讀臺灣地區公私立大專院校（不含空中大專院校），家境清寒且未領受公費待遇之學生，符合下列各款所定條件者，得申請獎學金。 ※公私立大專院校（含五專後二年，不含研究所、實習生、進修專校）: (一)學業成績即一般學科或學習領域成績，每學期總平均八十分（甲等）以上，或原住民學生在七十五分以上，且每科成績均在六十分以上者。 (二)體育成績即健康與體育成績在七十分以上者（學校依教育主管機關規定，免開體育課或學生依規修畢或免修體育成績者，得由學校出具證明，免附體育成績）。</t>
+  </si>
+  <si>
+    <t>（一）108學年度全學年度德行成績平均須在甲等或80分以上。 （二）108學年度全學年度學業成績須各科及格，且總平均分數應在80分以上。 （三）108學年度全學年度體育成績平均須在70分以上。請於申請表填寫最近 學年度體育成績，並檢附該學年度全學年成績單；無體育成績等第者， 請於申請表勾選原因。 （四）技職(藝)類科學生獲得政府機關舉辦之全國性或三個國家以上之國際性 比賽前三名，且108學年度德行、學業、體育成績均在六十分以上者， 得提出申請。 （五）公費(軍費)學生、在職專班學生不得提出申請。 （六）如已領取其他單位獎學金，請勿重複申領本會獎學金。</t>
+  </si>
+  <si>
+    <t>一、申請資格： （一）第一類：本人需為顏面損傷或重大燒傷之在學學生，且須符合申請條件之一 1. 學習獎學金：108學年度上或下學期成績擇一 （1）優秀獎學金：大專、研究所其學期總平均成績需在90(含)以上。 （2）助學金：大專、研究所其學期總平均成績需在60分(含)以上。 2. 特殊才藝優秀獎學金：凡特殊才藝獲108學年度個人校際以上比賽前三名(不包含校內舉辦之比賽)。 3. 升學獎學金：於109學年度錄取公、私立大學(含二專)、研究所、博士班，並完成109年學年度新生註冊。 （二）第二類：需父母一方為顏面損傷或重大燒傷之在學子女申請，且須符合申請條件之一 1. 勇源-陽光子女助學金。108學年度上或下學期成績擇一：大專、研究所其學期總平均成績需在70(含)以上。 2.明閱科技-陽光子女才藝優秀獎學金：凡特殊才藝獲108學年度個人校際以上比賽前三名(不包含校內舉辦之比賽) ***詳細資訊及陽光金楷模獎學金及仁寶電腦陽光電腦獎助學金請參照本會網址: https://scholarship.sunshine.org.tw/</t>
+  </si>
+  <si>
+    <t>1.家境清寒、家庭遭遇變故使經濟發生困難或持有低收入戶證明者。 2.學業成績平均 80 分以上或全校/全班排名百分比前 10%。 3.本學期未領其他獎學金（「教育部學產基金低收入戶學生助學金」、「原住民學生獎助學金」除外）。 4.一戶以一名為原則。 5.本年度本校錄取3名大學部學生</t>
+  </si>
+  <si>
+    <t>1.限勞工(含計程車駕駛)、殘障人士、農、漁、榮民、原住民本人或其子女就讀大學二年級以上及研究所一年級學生 2.108學年學業及操行成績80分以上者 3.全國15名</t>
+  </si>
+  <si>
+    <t>1.設籍臺南市（以下簡稱本市）六個月以上 2.大學校院及專科學校（含五年制專科學校四、五年級）：學業成績學期平均八十分以上且未受記過處分。 3.前項在學學生不含研究生、空中大學學生、夜校生、補校生、公費生、在職進修學生、實習生、延畢生、一年級上學期新生。 *適用對象及優先順序如下： （一）低收入戶學生。 （二）特殊境遇家庭子女孫子女。 （三）中低收入戶學生。 （四）家庭年所得五十萬元以下之學生。</t>
+  </si>
+  <si>
+    <t>(一)在人文藝術、法商、科學工程、數理科技、醫學、體能運動、服務等領域表現傑出之中華民國籍學生，申請期間，除醫學系為大學第二年級至第五年級外，其餘科系為大學第二年級至第四年級之日間部女性學生，以家境清寒者優先。 (二)品德良好、成績優良，有具體事蹟，足為同儕表率者。 1.自傳及申請資料條理分明、詳實完整。（佔比 10%） 2.擔任社團幹部或社服公益志工參與公益活動有具體事蹟，足為青年典範者。（佔比 25%）  3.參加校內外比賽、活動或團體競賽，取得個人獎項或團體獎項中個人表現特別優異為校爭光者、或取得證照等。（佔比 25%）  4.在校求學態度積極，虛心進取，學業成績優異，前一學年學業平均成績為班上前 20%，且無違反校規紀錄，操行成績八十分以上。（佔比 4</t>
+  </si>
+  <si>
+    <t>1.家境清寒或家庭突遭重大變故之在學生(大學部或碩士班) 2.前學年學業及操行成績平均80分以上 3.家境清寒者，請出具低收入戶證明或鄉、鎮、區公所開立之清寒證明 4.非家境清寒但過去一年內家庭突遭重大變故者，請提出書面說明，並經導師簽名證明 5.未享公費及其他獎學金者 6.本校5名</t>
+  </si>
+  <si>
+    <t>1.凡經海外保送、港澳考取或自行回國介考有案，在中華民國就讀公私立大專院校 具僑生身份者，並限自費大學僑生，研究所及大一新生不可申請。 2.獎學金：前學年學業成績80分以上，操行75分以上者 3.助學金：前學年學業成績及格，操行75分以上，家境清寒者 4.本學年度未享有任何公費或未領取其他獎學金</t>
+  </si>
+  <si>
+    <t>對象及名額: 1. 各校(土木系)二～四年級在學學生(新生、研究生不適用，限本國籍學生) 【土木系 ２ 名】。 2. 需符合下列條件之一： (1) 家境清寒並持有政府核發之中低、低收入戶證明者。 (2) 父、母（或監護人）其中一人重病在身影響家庭經濟收入者。 (3) 父、母（或監護人）其中一人無工作能力者。 (4) 單親家庭負教養責任之一方無法撫育者。 (5) 家庭遇有重大變故，而生活有困難者。 3. 前一學期總成績需達75分以上，且德育成績甲等以上。 4. 須具推薦書（導師撰文及系主任簽核）</t>
+  </si>
+  <si>
+    <t>(一) 學生其父親或母親之祖籍符合國民政府熱河省建置之學生。 (二)上一學年學業成績，上下學期學業成績平均在七十五分以上者，及操行成績、體育成績在乙或七十五分以上，且未曾受記過處分者，殘障學生及大專高年級如學校無操育課程時得免繳體育成績單。</t>
+  </si>
+  <si>
+    <t>1.凡設籍台東縣清寒在學學生（不含進修、推廣教育）成績優異，操行或綜合表現成績在80分以上，學業成績85分以上，並經縣政府核定有案低收入戶者始得提出申請。 2.新生及已畢業生不得以原校成績申請。 3.大專院校每名10,000元加獎狀一只。 4.若申請人數超額，將依照分數高低排序法篩選。</t>
+  </si>
+  <si>
+    <t>1.學生前一學期學業成績達70分以上者，得申請獎學金，每學期新臺幣2萬2千元。 2.學生前一學期學業成績達60分以上或設籍臺東蘭嶼鄉具雅美族身分者，得申請一般助學金，每學期新臺幣1萬7千元。 3.低收入戶或中低收入戶學生前一學期學業成績達60分以上者，得申請低收入戶助學金每學期新臺幣2萬7千元或中低收入戶助學金每學期新臺幣1萬7千元。 【特別提醒】： **已領助學金尚未完成至少1/2服務時數者本學期不得申請 **有疑問或有需要者請洽本校原民資源中心或生輔組協助</t>
+  </si>
+  <si>
+    <t>1.設籍新竹縣滿六個月以上之學生 2.前學期學業及操行成績均在80分以上 3.家境清寒者未享公費或其他獎助學金 4.本校一名</t>
+  </si>
+  <si>
+    <t>1.凡設籍南投縣、肄業於公私立大專院校及中等學校之優秀學生，符合下列規定而 未享有公費及政府其他獎學金者 2.前學期學業成績80分以上，操行成績80分以上(身心障礙者 及奉准免修體育課者不計) 3.低收入戶或身心障礙者優先錄取 4.大專院校學生：30名，碩士班學生(不含在職專班)：15名，博士班學生(不含 在職專班)：5名，每名3000元；原住民：10名，每名1500元 5.前項各款學生一年級新生於第二學期始可憑上學期成績申請獎學金。 相關網站:http://www.ntct.edu.tw</t>
+  </si>
+  <si>
+    <t>1. 以金門籍學生或設籍金門連續達三年現仍在籍，並須全時進修者（不含在職專班、帶職帶薪或帶薪進修者）。 2. 父或母(監護人)設籍金門連續達十年現仍在籍。 3.一般肄業學生獎學金155名：（不含就讀夜間部、進修部及已畢業學生）。 私立大學（學院）每學期錄取50名，每名新台幣4,000元整。 大專院校在學學生，學業總平均成績及操行成績，均在80分以上者。 4.研究生獎學金(經教育部認可學校)：考取國內外公私立研究所（一次獎勵）碩士班每名1萬元整，博士班每名2萬元整。凡獲得國內外博士學位(一次獎勵，須持有兩年內畢業證書及論文)，得申請獎勵金新台幣2萬元整。 有下列情形之一者，不得申請本獎學金： (一)享有政府公費待遇者。 (二)有1科成績不及格者。 (三)曾受記過處分者(大專)。</t>
+  </si>
+  <si>
+    <t>1.設籍高雄市六個月以上，就讀國內高級中等以上學校及本市國民中學之低收入戶或中低收入戶學生 2.學業成績學期平均八十分以上且學期內功過相抵未受警告以上懲處者，得申請發給清寒優秀學生獎學金（以下簡稱獎學金）。但有下列情形之一者，不得申請： (1)就讀空中大學、軍警學校、各類進修學分班，或碩、博士班研究所修業第三年以上。 (2)延長修業年限、重修或補修。 3.一年級新生申請發給獎學金者，以申請第二學期獎學金為限。 4.獎學金之發給名額，以學期總平均分數高者為優先；分數相同者，以先設籍本市者為優先。主管機關並得在預算額度 內調整獎學金發給名額。</t>
+  </si>
+  <si>
+    <t>1.台灣地區各農田水利會會員(不欠會費、工程費者)及員工子弟(子女、孫子女、弟 妹)就讀土木系、生環系之大學部學生(不含研究生) 2.前學年學業及操行成績均在80分以上(無任何一科不及格)，體育成績70分以上者 3.農田水利會聯合會、台灣地區各農田水利會及聯合建設基金管理委員會員工子弟 ，亦得申請 4.全國12名 5.本獎學金由學校統一收件，不接受學生個別申請</t>
+  </si>
+  <si>
+    <t>(一)國內重大天然災害災區低收入弱勢受災家庭，就讀大專校院、高中職（五專前三年）、國中（小）之在學子女，且未享有公費待遇及未領軍公教子女教育補助費，確有就學困難者。 (二)前項所稱大專校院係指研究所碩士班、大學、四技、二技、五專(後二年)、二專等學校，不包括空中大學(大學進修學校)、空中專校(專科進修學校)、軍警學校(自費生經提出在學證明或已註冊之學生證影本，證明為自費生得納入該補助範圍) （三）前項大專校院各類在職專班、輪調建教班、假日班、學分班、公費生、延畢學生、學士後各學系學生不納入該會助學範圍。</t>
+  </si>
+  <si>
+    <t>1. 凡就讀國內各公、私立大學之土木、水利、地質、環工、交通運輸管理及都市計畫等相關學系，具正式學籍之學生(進修部不適用)。 2. 成績標準：大一新生以高三學業成績，大二至大四學生以其前一學年之學業成績平均在80分以上者。 3. 申請者以領有鄉、鎮、市公所以上政府機關核發之低收入戶及中低收入戶證明書者為優先，如無法取得前述證明，而有父母雙亡、單親家庭或家庭遭受重大變故等導致生活發生困難者，亦可檢具相關證明文件。</t>
+  </si>
+  <si>
+    <t>凡就讀教育部立案國內公、私立大專院校專科部（四、五年級）、大學部、研究所（博、碩士班）等在學生(不含公費生、重修生、延修生、延畢生、進修部、在職進修生、推廣教育學分班及夜間部學生 與軍職帶職進修生)，108學年度上下學期學業平均成績80分以上，並具有下列身分者。 （一）軍榮眷子女獎學金：  １．研究生：家長為現役志願役軍人或具榮民身份之子女（含榮遺眷子女）。  ２．大學生及專科生：凡榮（遺）民未支領軍公教退休俸（不含大陸或遺眷半俸）、生補費、贍養金或階級上校（含）以上支領退休俸者，且未任 職公務機關（構），或任職上述單位，而依規定不能領取子女教育補助費者之子女。 （二）身心障礙學生獎學金：持有各縣、市政府核發身心障礙手冊之學生。 （三）低收入戶學生獎學金：持有各縣、市政府核發低收入戶卡（名冊）證明之學生。 ※獎學金作業要點可上網查詢，網址：www.lmcf.org.tw</t>
+  </si>
+  <si>
+    <t>1.大學日間部三年級以上或研究所二年級以上 2.上學期學業成績85分以上，無任何一科不及格，操行80分以上，體育75分以上 3.全國30名 4.未接受其他獎助學金者,但教育部所發助學金不在此限.</t>
+  </si>
+  <si>
+    <t>1、凡有中華民國國籍且國內經政府立案之公私立國中、高中(職)及大專學校學生之 單親家庭子女，均可申請。依對象分為三組，每組名額 100 名。 2、大專組 (C 組):經評審入選後，每名頒發獎學金新台幣六仟元整。  （大一持高三學業成績者，列入高中組） 3、上學年(上、下學期)學業成績總平均在 75 分以上。 4、本獎學金之申請，限一戶一名。 5、限未享有公費待遇者。 6、申請者本人須為單身。 ※詳情請參閱基金會網頁：http://www.spef.org.tw/</t>
+  </si>
+  <si>
+    <t>(1) 台北市、新北市、宜蘭、基隆、桃園、新竹縣市 所在地,公私立大學、技術學院、專科學校(二年制)新生或在學學生(專科五年制四年級、五年級)。博士班、碩士班學生及僑生不適用本辦法。 (2) 家境清寒父母雙亡、單亡、單親或家逢變故而貧困者。 (3) 在學學生操行甲等及學業成績平均 75 分以上(無不及格科目) , 新生憑高三成績單、入學通知及註冊單。(註:如有特殊情況,個案辦理)。 (4) 受獎人必須親自參加頒獎典禮。(地點:台北市區內,屆時通知。) 【上學期:2020 年 11 月 27(四)18:40、下學期:2021 年 4 月 23 日(五)18:40。】 (5) 經本基金委員會審查通過,取得受獎資格者,如亦領取其他獎助金者,受獎人應主動告知獎項及金額,本基金委員會有權將受獎者領取之其他獎助金金額予以扣除或追回。如經本基金委員會查證受獎人未據實告知領取其他獎助金情事者,則當然喪失受獎資格,不得領取本獎學金,若已受領者,應全額無息返還本基金會。</t>
+  </si>
+  <si>
+    <t>獎學金頒發對象：（已畢業大四學生、研究所、碩士、公費生等無法接受申請）現就讀於國內各公私立大專院校、高中、高職之肄業正式學生（含夜校生）。 01、獎勵對象：警政署所屬警察機關編制內現職員工之子女。 02、獎助對象：因公殉職、死亡、殘廢或受重傷之原警政署所屬警察機關編制內員工子女。（病故不予受理） 申請標準： 01、獎勵部份：學業平均80分以上，每科均須及格。 02、獎助部份：學業平均60分以上，每科均須及格。 03、未領學校或其他單位機構之獎學金。</t>
+  </si>
+  <si>
+    <t>1.凡設籍嘉義縣之居民,現為國內公私立大專院校、高中職校(不含研究所、進修學士班、夜間部、補習學校、空中大學)。 2.學業成績總平均在八十分(甲等)以上；操行成績八十分(甲等)以上；有體育成績者,其體育成績七十分(乙等)以上。 3.一年級新生,於第二學期始可憑上學期成績申請獎學金。</t>
+  </si>
+  <si>
     <t>應繳文件</t>
   </si>
   <si>
@@ -691,9 +976,6 @@
     <t>有關本【創意獎學金】之詳細內容，請參閱網址：http://www.ctci.org.tw</t>
   </si>
   <si>
-    <t>※該獎學金共九項，詳細資料請參考 http://www.tfrd.org.tw/tfrd/service_c/main/category_id/1 一、申請日期  即日起開始接受申請至109年8月28日（五）截止收件。資料不齊者可先送件再行補件，補件時間至109年9月11日（五）為止，逾期恕不受理。（以郵戳為憑） 二、申請程序 （一）於活動公告期間，可向本會病患服務組張社工洽詢（分機167），或至本會網站 （www.tfrd.org.tw）查詢相關辦法及下載申請表格。 （二）申請者各項證明文件及資料以A4格式提供。文件備妥後，請寄「財團法人罕見疾病基金會病患服務組」收，並於信封右上角註明「申請2020罕見疾病獎助學金」字樣。(郵戳為憑) 三、洽詢方式 財團法人罕見疾病基金會 電話：（02）2521-0717轉167 張毓宸社工師 Mail：ps02@tfrd.org.tw 傳真：（02）2567-3560 地址：10450台北市中山區長春路20號6樓</t>
-  </si>
-  <si>
     <t>(1) 「崇友實業獎學金」申請表 乙份。 (2) 前學期之學業、操行成績証明單正本乙份(學業成績需加註班上排名)。 (3) 戶口名簿影本或戶籍謄本 乙份。 (4) 清寒家庭相關證明，如：低收入戶證明、中低收入戶證明、急難變故證明，若無上述資料，請務必提供全戶108年度國稅局綜合所得稅各類所得資料清單。 (5) 個人簡歷、自傳(不限格式)。 (6) 其他加分資料：如學校教授推薦函、參與技能競賽、志願服務紀錄或其它外語檢定之相關證明文件影本。 ***欲申請者請自行於10/12前郵寄掛號(郵戳為憑)至崇友文教基金會(100台北市公園路30號10樓A室)收並註明申請「崇友實業獎學金」。 **洽詢專線 (02) 2381-3345、電子信箱 vicky@gfc.org.tw *申請表單和詳情網址: https://www.gfc.org.tw/project-news/2735</t>
   </si>
   <si>
@@ -715,9 +997,6 @@
     <t>1.本會助學金申請表格 2.資料蒐集與著作權讓與同意書 3.申請人最近學期成績單 4.註冊繳費單影本(註冊單須提供已繳費蓋章；若為助學貸款，則須提供註冊單及助學貸款已繳費證明。) 5.申請人近三個月內全戶戶籍謄本(須含詳細版) 6.擇一：1.中低收入證明 或 2.全戶財產證明及所得稅證明 7.行動記事紙本 8.相關證明文件(不需全部提供，可選擇與自身相關或內文提及檢附即可) 　(1)特殊境遇證明。 　(2)清寒證明。 　(3)變故證明。 　(4)災害證明。 　(5)醫療證明或身心障礙證明/手冊影本。 9.檢附資料需齊全才予以審查，無論審查通過與否，本會皆不退件，申請人請自行保留正本。</t>
   </si>
   <si>
-    <t>申請方式: 符合「台港教育交流基金獎助學金申請作業要點」條件者，於申請時間檢附相關文件向基金會提出申請： 1. 申請時間：2020年6月15日至8月31日止。 2. 應備文件： （1） 申請表乙份（如附件）。 （2） 在學證明(今學年度入學者提供錄取通知書)。 （3） 成績證明(GPA成績;今學年度入學者，倘無DSE成績，亦可提供中學成績)。 （4） 自傳。 （5） 對國際交流、台港交流、社區發展有特殊表現及貢獻之證明文件。 （6） 校長(或師長)推薦信或其他有利審查之文件。 （7） 申請者的家庭受到COVID-19疫情影響,致經濟情況遭逢變故,對就學之經濟支持產生困難,並提送經濟狀況證明文件經本委員認定者(本項為優予考量指標,亦可不提供)。 **有關台港教育交流基金的查詢。請致電2736 2638或電郵 至 info@hmtcf.org 與港澳台灣慈善基金會秘書處聯絡。有興趣同學可把握是次機會，填妥獎助學金申請表及有關之証明文件，於2 0 2 0 年8 月3 1 日或之前交到港澳台灣慈善基金會秘書處 或 郵寄至香港九龍尖沙咀廣東道3 0 號新港中心第一座6 1 2 A室 秘書處收。</t>
-  </si>
-  <si>
     <t>1.申請書(可上網下載https://www.fabulousgroup.com.tw/TH/OnePage.aspx?tid=124&amp;id=156) 2.本人二吋半身照片一張(貼於申請書上) 3.全戶戶口名簿影印本或戶籍謄本 4.前一學年之全年度成績單正本 5.自傳需詳實敘述家庭背景 6.在學證明文件 7.市政府核發之中低收入戶或低收入戶證明 ●請依1-7項順序裝訂，無裝訂或不全者皆不受理。 ●請於109年9月15日前親送或掛號郵寄至「財團法人慈暉文教基金會」台北縣永和市中山路一段26號B1 ●聯絡人：謝小姐 電話：02-86600766#11</t>
   </si>
   <si>
@@ -829,13 +1108,103 @@
     <t>名額及金額：每學年數名，依公告執行；獎學金每位學生 45,000 元，分上、下學期、 扶輪年會後三次發放各 20,000 元、15,000 元、10,000 元。其中 10,000 元為勤學獎金，鼓勵第一及二年之學生完成至少 30 小時之訓練課程、第三年以上學生完成至少 20 小時，並參與 2 次扶輪例會或服務活動，勤學獎金於扶輪年會後發放。如學生請假未事先經主辦單位、贊助社及導師之核准、上課時數未達期望標準，或未參加贊助社扶輪例會及服務活動，則將無 法領取第三次之 10,000 勤學獎金。上述情況均將影響次年度扶輪社相同或類似獎學金。 應備文件： 1. 申請表（https://reurl.cc/XkeGyM）。 2. 前學年成績單正本。 3. 近三個月內之全戶戶籍謄本（若與父母不同戶請分別檢附）。 4. 財政部國稅局前一年度全戶綜合所得稅各類所得資料清單。 5. 財產歸屬資料清單（向稅捐處申請）。 6. 班導師或系主任之推薦函一份。 7. 五百字以內的自傳。 8. 其他 - 參加社團幹部證明文件等…… （非必要）。 *已申請過的學生，請在9/4前自行備妥資料寄至主辦單位。初次申請者，請備妥前述文件於9/15前繳至生輔組辦理。</t>
   </si>
   <si>
-    <t>一 、 學 校 之 保 薦 書 。 二 、 108 學 年 成 績 證 明 書 。 三 、 在 學 證 明 書 或 學 生 證 影 本 ( 須 蓋 當 年 度 註 冊 戳 章 ） 四 、 申 請 人 個 人 身 份 證 影 本 。 *欲申請者請於109年9月1日上午九時至109年9月30日下午五時至學田網站輸入申請資料，網址：http://scholarship.azurewebsites.net/，再列印檢核表及保薦書(共2頁)並檢具相關證明文件，一同掛號郵寄申請。 **收件地址（郵政需用掛號）：104台北市南京東路二段六號十二樓。 **收件人 ：學田獎學金 收</t>
+    <t>一 、 學 校 之 保 薦 書 。（因保薦書須蓋「學校關防」，請同學儘早完成線上申請，並於9/25前將保薦書送至生輔組核章。） 二 、 108 學 年 成 績 證 明 書 。 三 、 在 學 證 明 書 或 學 生 證 影 本 ( 須 蓋 當 年 度 註 冊 戳 章 ） 四 、 申 請 人 個 人 身 份 證 影 本 。 *欲申請者請先至學田網站輸入申請資料，網址：http://scholarship.azurewebsites.net/，再列印檢核表及保薦書(共2頁)並檢具相關證明文件，一同掛號郵寄申請。 **收件地址（郵政需用掛號）：104台北市南京東路二段六號十二樓。 **收件人 ：學田獎學金 收</t>
   </si>
   <si>
     <t>（一）填繳獎學金申請表1份。 （二）繳送前學年成績證明書（正本）。 （三）在學證明（學生正影本、A4規格） （四）清寒證明文件繳送全戶戶口名簿（影本）、里辦公處清寒證明書。 （五）全戶戶口名簿（影本） （六）未享有公費待遇及未得其他獎學金證明書(由校長於在學證明或學生證影本上加註並蓋章證明)。 （七）德行評量推薦為清寒優秀學生者(由導師在前學年成績證明書正本上加註並簽章證明)。 註：各項證明文件如為影本者，每頁請蓋用「私章」並交由學校加註「與正本相符」字樣。 **欲申請者，請備妥上述文件後於9/21前繳至生輔組辦理。</t>
   </si>
   <si>
     <t>請將下列附件(1) (2) (3) (4)於網路申請時，一併以彩色整頁掃瞄(或照相)存成JPG檔或PDF檔(需能清楚辦識)上傳至網路申請附檔中(如有造假需負法律責任)，請確認您的e-mail帳號有效，並記牢帳號與密碼。 1.戶口名簿(含申請人之戶籍地址及姓名資料)或戶籍謄本(須為宜蘭縣籍學生且含申請人之戶籍地址及姓名資料)，戶口名簿或戶籍謄本不得以身分證代替。 2.前一學期成績單正本(需蓋學校戳章)。 3.低收入戶證明正本(村里長出具之清寒證明視同無效)或殘障手冊(學生本人)，申請一般生組免附。 4.本人郵局帳戶，如無法提供本人郵局帳戶請提供直系親屬(如父、母、祖父、祖母)帳戶，須簽立切結書(如網頁附件1)一併上傳並提供撥入他人帳戶切結書正本。</t>
+  </si>
+  <si>
+    <t>※申請報名 報名日期：自 109 年 9 月 21 日（星期一）上午 9 時至 109 年 9 月 30 日（星期三）下 午 5 時止。 報名網址：https://scholarship.taipower.com.tw/ 報名限制：每人僅得擇一類科申請，不得重複 ※甄選與錄取 筆試時間：109 年 10 月 24 日（星期六）上午 9 時 20 分至 11 時 20 分</t>
+  </si>
+  <si>
+    <t>應備文件： 1. 學校正式成績單影本（108學年度上、下學期）。 2. 在學證明。 3. 戶口名簿或戶籍謄本影本。 4. 家長榮民證（或遺眷證明資料）影印本。 5. 低或中低收入戶證明書或教師開立證明。 欲申請者請自行申辦，並在9月30日前填具申請書，連同上述文件寄至臺東縣政府教育處（950臺東縣臺東市博愛路306號；信封袋上註明毛毅先生榮民子女獎助學金）申辦。</t>
+  </si>
+  <si>
+    <t>1.申請書 ( http://ptntc.cyc.org.tw/download ) 2.108學年成績單 3.未受記過證明 4.清寒證明(低收入戶或師長証明) 5.自傳(限1,000字以內) 欲申請者，請備妥上述文件後，於9月15日前繳至生輔組。</t>
+  </si>
+  <si>
+    <t>1. 周鴻經獎學金申請書(https://www.math.sinica.edu.tw/www/student/chou_ANN20_c.jsp) 2. 志向說明書(中、英文各一份) 3. 在學各學年之成績單（碩士班一年級研究生須繳大學之成績單） 4. 周鴻經獎學金推薦書 5. 數學相關系所之教授二人以上之推薦書 備註：本獎學金只限在台灣就讀的學生申請。 欲申請者，請在10月20日前備妥上述文件至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>一、本辦法第二條所規定之書面證明。 1.依法核定之低收入戶，並有書面證明者。 2.家庭遭遇變故，致生活陷於困難，經班導師認定並由學校出具書面證明者。 3.其他家境清寒經班導師認定並由學校出具書面證明者。 二、獎學金申請書。(https://reurl.cc/r813xO) 三、前一學期成績證明書。 四、戶口名簿影本 *欲申請者，請備妥上述文件，於9/21前繳至生輔組。</t>
+  </si>
+  <si>
+    <t>申請本基金會獎學金，應檢具下列證明文件： （一）學校公文。 （二）申請清單（將由生輔組整理） （三）109學年度獎學金申請表（表格下載：https://scholarshipinfo.moe.edu.tw/download.php） （四）學生證正反面、或在學證明影本1份。 （五）該學位學程108學年度上下學期或全學年度成績單正本1份（於其他學年 度選修體育者，一併檢附該學年度成績單）。 （六）該項獎學金指定條件之證明文件正本、或與正本相符之影本1份。 （各項獎學金指定條件不同，詳參本基金會108學年度獎學金名額分配表） 因種類較多，請先上網查詢後，再填寫。 每位學生最多得申請2項獎學金，最多以獲配1項獎學金為限。 查詢網址--https://scholarshipinfo.moe.edu.tw/rulest.php</t>
+  </si>
+  <si>
+    <t>一、應繳證件: （一）自傳：600字以上，請由申請者本人用稿紙書寫或電腦打字，請說明受傷經過、受傷部位、家庭概況及求學經驗。 （二）損傷證明文件：足以證明損傷事實之全身照片或醫生診斷證明書、顏面損傷者請務必附上照片。 （三）全戶三個月戶籍謄本。 （四）成績單：成績採計108學期上或下學期擇一申請即可。成績單若為影本，請加蓋學校證明章，以上所有獎項只能擇一申請。 （五）申請陽光電腦獎助學金者：請另附上電腦技能檢定證明或特殊才藝得獎證明（影本）。 二、申請方式： 一律先網路申請，再印出申請書及應備文件於一週內掛號郵寄至：104臺北市中山區南京東路三段91號3樓「北區中心 薛惠君」收 送件後已收件編號可於線上申請系統查詢申請進度。 三、相問問題：請洽02-25078006分機122 北區中心薛惠君</t>
+  </si>
+  <si>
+    <t>1.申請書（請黏貼２吋半身相片一張） 。 2.自傳（內容請描述家庭狀況）。 3.導師、系所主管或校院長推薦表（請就所知說明申請人家庭經濟狀況， 高中職並請提供在校德行評量之敘述） 。 3.上（108）學年度全學年成績單。 4.未領其他獎學金證明（並請親自簽名並加蓋校印或單位章）。 5.低收入戶（請附證明正本）或家境清寒者（由導師在推薦表中詳述家境 清寒狀況）。 6.學生證或在學證明正反面影本（需蓋有註冊章）、身份證或戶口名簿影本 *申請表格式下載：https://ppt.cc/f54m8x **欲申請者，請於10/05前備妥上述文件繳至生輔組申辦。</t>
+  </si>
+  <si>
+    <t>1.申請書(https://reurl.cc/2go54v) 2.108學年成績單 3.戶籍謄本 4.學生證正反面影本 5.勞工、農民、漁民的職業證明、殘障人士的殘障證明、榮民及原住民之身份證明。如為中低收入戶者，請附鄉鎮區公所證明。（里長之證明一律不予採計） *因申請表需蓋學校承辦人員章證明未領取其他公費獎助學金，故請欲申請同學儘早申辦，並在10/15前自行掛號寄出。</t>
+  </si>
+  <si>
+    <t>（一）申請書一份。(https://reurl.cc/v1g9yA) （二）前一學期成績證明書一份。 （三）獎懲紀錄 （四）在學證明書或學生證影印本一份。 （五）區公所開立低、中低收入戶證明書、特殊境遇家庭核准公文或國稅局開立最近一年度綜合所得稅各類所得資料清單一份。 （六）戶口名簿或戶籍謄本(須含申請人完整記事)影印本一份。 *欲申請的同學，請在10/5前備妥上述文件繳至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>1.申請表(需先呈送班導師簽核加註意見)含個人簡傳 2.學生證及上學年成績單(含排名) 3.二位師長之推薦函（格式自定） 4.符合遴選標準之證明文件，如參加社團、公益活動之服務證書或感謝狀、比賽獎狀等(限大學階段、不超過 A4 10 頁) 5.如為家境清寒者，需檢具低收入戶證明或由村(里)長開立之清寒證明書。 *欲申請者，請在10/13前備妥上述文件繳至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>1.申請書(https://reurl.cc/7o3Zdb) 2.學生證影本 3.108學年度成績單(大一新生可用高三成績代替；碩一新生可用大四成績代替) 4.低收入戶證明或清寒證明 5.家庭突遭重大變故者，請學生提出書面說明，並經導師簽名證明 *欲申請者，請備妥上述文件於10/20前繳至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>1.申請書(https://reurl.cc/zzW2Xp) 2.前學年成績單、操行證明書 3.護照及僑居證件影本乙份 4.僑居證件影本 5.自傳(1000字以上) 6.未領取其他獎助學金或濟助證明 7.如為申請助學金者，應提清寒證明書乙份 *得獎者須出席頒獎典禮，訂於109年11月21日(星期六)上午10時，在台北市大直典華旗艦店舉行頒獎典禮，未出席者，註銷獎助。 **欲申請者，請在10/5前備妥相關文件繳至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>1. 申請書【官網線上填寫附件一】 2. 自評表【官網線上填寫附件二】 3. 推薦書：導師撰文及系主任簽核【官網下載附件三】 4. 以下證明擇一檢附： （A）政府核發之中低、低收入戶證明影本、清寒證明。 （B）單親家庭需檢附戶籍謄本影本。 （C）弱勢家庭或急難救助者之其他相關證明文件影本（例：非自願性失業證明、失蹤證明、在監證明、醫生診斷證明書、身心障礙證明......等，視個別家庭狀況而定。） 5. 戶籍謄本影本(近 6個月內) 6. 前一學期成績單。 7. 個人自傳與愛心傳承乙份(內容須親自書寫)：內容含家庭背景、成長經歷、目前生活情況...等；簡述說明曾經參與之公益活動或愛心社團，並自述心得與感想，在未來如何將這份愛傳承與回饋。【官網下載附件四及五】 8. 前一學期學習心得報告(約400字，內容須親自書寫)：上學期曾領取本獎學金之學生，必須多檢附此項心得報告，否則視同缺件處理。【官網下載附件六】 9.我 的承諾：【官網下載附件七】  **未使用本機構制定之申請書等書類格式、應備證件不齊、申請書填寫及核章不全、逾期或個人申請者，視同資格不符，不予審核。 ** 欲申請者，請在9/30將上述文件繳至土木系辦申請。</t>
+  </si>
+  <si>
+    <t>(1)獎學金申請表一份 (2)自傳500字一份親筆簽名蓋章 (3)學年成績單一份 (4)能證明熱河省籍文件。 **欲申請者，請於10月31日前備妥文件自行掛號郵寄 **郵寄地址：10541 台北市民權東路三段191巷87號3樓 台北市熱河同鄉會</t>
+  </si>
+  <si>
+    <t>1.申請表(https://reurl.cc/3LjD5l) 2.108學年度學業及操行或綜合表現成績單正本(若繳交影本需蓋就讀學校印信)壹份 3.戶籍謄本或戶口名簿影印本 4.學生證影印本 5.低收入戶證明。 **欲申請者，請於截止日109/10/12前備妥相關資料，送生輔組辦理。</t>
+  </si>
+  <si>
+    <t>1.申請表(9/7開放申請線上填寫，截止至10/16) 2.戶口名簿影本或戶籍謄本 3.前學期成績單 4.鄉公所開立之低收入戶證明(申請低收入戶工讀助學金者需附) 5.特殊才藝證明(申請特殊才藝獎學金者需附)</t>
+  </si>
+  <si>
+    <t>1.申請書(https://reurl.cc/N6pz85) 2.前學期成績單 3.清寒證明 4.全戶戶口名簿影本 5.如有未合規定者(證件不齊，未經學校加蓋關防，逾期或個別申請者)，概不受理 *欲申請者，請備妥上述文件於9/21前繳至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>1.申請書（https://reurl.cc/2gD52v） 2.戶籍謄本（或戶口名簿影印本，需為1年內資料） 3.108-2學期成績單 4.學生證影印本 5.為低收入戶學生者，並須檢附鄉（鎮、市）公所出具之證明；如為身心障礙者（含父母或申請學生），須檢附身心障礙手冊影印本。 *欲申請者，請備妥上述文件於10/12前繳至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>大專院校學生及出國留學者(國外大學): 1.在校肄業證明或學生證影本（經入學註冊完畢，正反兩面）。 2.前學期成績通知單。 3.戶籍謄本或戶口名簿影本。 4.學生本人之金融帳戶封面影本。(郵局或土地銀行帳戶) 國內外研究生： 1.填附全時進修屬實，非屬在職專班、帶職帶薪或帶薪進修者切結書。 2.在校肄業證明或學生證影本（經入學註冊完畢，正反兩面、國外研究生須附在校肄業證明）。 3.戶謄謄本或戶口名簿影本。 4.學生本人之金融帳戶封面影本。(郵局或土地銀行帳戶) 本獎學金相關申請規定及申請表逕至 http://eduweb.cy.edu.tw/km02 **欲申請者，請於截止日前自行郵寄申請 **地址：89345金門縣金城鎮民生路60號 金門縣政府收</t>
+  </si>
+  <si>
+    <t>１、申請書。 ２、108學年第2學期成績證明文件。 ３、戶口名簿影本或戶籍謄本（足以識別設籍本市六個月以上）。 ４、低收入戶或中低收入戶證明文件或高雄市社福比對系統造冊核章證明。 *欲申請者，請備妥上述文件於10/19前繳至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>(一)、申請書，並貼有最近相片。(http://www.tjia.gov.tw/news-detail.asp?mode=h&amp;id=1926) (二)、上一學年兩學期之成績證明單。 (三)、會員、員工或其子女、孫子女身分證明文件。 *欲申請者，請備妥上述文件於9/21前繳至生輔組辦理。</t>
+  </si>
+  <si>
+    <t>1.申請表(可至https://www.rel.org.tw/FileDownload?itemid=16&amp;mid=17下載) 2.鄉(鎮、市、區)公所出具係為天然災害災區受災家庭證明1份。 3.鄉(鎮、市、區)公所出具低收入戶證:非低收入戶但家境清貧寒苦者得檢具鄉(鎮、市、區)公所出具已列入政府中低收入而紹扶助之證明。 4.戶口名簿影本1份。 5.在學證明1份。 6.印領清冊。 7.切結書。 *欲申請者，請備妥上述文件於9/30前繳至生輔組。</t>
+  </si>
+  <si>
+    <t>1. 申請表乙份（請從本社網站www.sinotech.org.tw下載列印，請勿更改格式）。 2.大學錄取通知書影本及高中第三年級學業成績單正本乙份（大一新生）。 3.前一學年成績單正本乙份，不得以影本代替(大二至大四學生)。 4.申請人之戶口名簿影本乙份。 5.鄉、鎮、市公所以上政府機關核發之低收入戶及中低收入戶證明書影本乙份。 6.其他足以證明家境清寒或家庭遭逢重大變故之相關文件(家人或本人身心障礙手冊、醫療證明或其他證明文件)。 ※以上文件除成績單外，影本請以Ａ4紙張為之(21×29.7公分，如同申請表紙張大小)，如未達申請資格、資料文件不符、不齊全或無法辨識者，恕不受理且不另行通知。此外，本社保留申請核准之權利，除成績單正本之外，所有申請文件概不退還。(未錄取者之申請文件可向本社申請退還) **送件方式：以掛號郵寄114臺北市內湖區新湖二路280號，信封外並註明：申請中興工程顧問社勤學獎學金。</t>
+  </si>
+  <si>
+    <t>1.申請表(https://reurl.cc/r8D8kO) 2.108學年度成績單正本 3.身份證、學生證影本 4.身分證明 【軍榮眷子女】 　(1)學生家長 「軍人身分證」影本 　(2)學生家長「榮民證」影本 　(3)榮民遺眷證明影本 　(4)現任職公務機關（構）之榮民，另請檢附單位開立未支領子女教育補助費 【身心障礙學生】 　(1)學生本人身心障礙手冊影本 【低收入戶學生】 　(1)檢附低收入戶卡（名冊）影本 *欲申請者，請備妥上述文件於10/19前繳至生輔組。</t>
+  </si>
+  <si>
+    <t>1.申請書(https://reurl.cc/d52Vak) 2.前學期成績單(包括操行.體育.學業) 3.學生證影本(正反面) 4.在校未領取其他獎學金證明 *欲申請者，請備妥上述文件於9/30前繳至生輔組。</t>
+  </si>
+  <si>
+    <t>一、申請時應檢具之證明文件: 1. 最近三個月內申請者本人及監護人戶籍謄本正本(申請需有紀事內容) 2. 本學年度在學證明正本或學生證影本(需蓋本學期之註冊章) 3. 108學年度全學年成績單正本 4.申請書（請至：www.spef.org.tw最新消息處下載） 二、前述應檢具之證明文件，若有未齊全者，本會將視為無效件。若申請人於收 件截止前補齊文件，重新投件申請者，則仍視為有效件處理。 **若遇申請問題，請洽02-2312-3838 #11 賴社工 **欲申請者，請自行於9/30前將申請資料請掛號郵寄至「國際單親兒童文教基金會」，並註明「獎學金申請及申請組別」。 地址：22041新北市板橋區文化路一段266號9樓之2</t>
+  </si>
+  <si>
+    <t>1、申請人為在學生：上學期成績單影本（需加蓋學校章）及學生證影本。 .申請人為年度新生：高三成績單影本（需加蓋學校章）、入學通知單及學生證影本。 2、國稅局發給之全戶所得清單及財產歸屬資料清單。 3、家庭狀況調查表、戶口名簿影本、申請人身份證影本。 4、學校之推薦函、未領其它獎學金證明書。 5、第一學期提供”自傳+生活概況”，第二學期申請時繳交”專業領域之學習分享+生活報告”列為下學期發放之評分標準。 6.線上填寫及提交表單:http:// www.rotarynorth.taipei 7、平台開放受理自:2020 年 9 月 17 日(四)00 點 00 分起 ~ 2020 年 9 月 25 日(五)23 點 59 分截止。</t>
+  </si>
+  <si>
+    <t>申請學生應詳填獎學金申請表，檢附下列資料：（缺件者不接受申請）  01、108年第二學期 成績單影本、申請大專組(A、B、E)請檢附在學證明書，  申請高中職組(C、D、F)請檢附學生證影本。（證明目前在學）  02、家長的警政單位在職證明或服務證正反面影本；家長因公殉職、殘障或  受重傷者，請原服務警政單位出具證明或撫卹金證書影本。  03、戶口名簿影本。（證明親子關係） 申請期間：109年 9 月15 日起至 10 月 20 日止逾時不收。（以郵戳為憑） 郵寄地址：106480臺北市大安區復興南路二段285號2樓 白曉燕文教基金會收</t>
+  </si>
+  <si>
+    <t>(一)申請書一份。(https://reurl.cc/k01Zlx) (二)前一學期成績單正本或加蓋學校證明章之成績單影本一份。 (三)戶口名簿影本一份。 (四)清寒證明文件(例:低收入戶繳交鄉鎮市公所核發之低收入戶證明;其他具清寒事實或突遭變故學生由學校導師簽章證明)。 *欲申請者，請備妥上述文件於9/30前繳至生輔組。</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1239,31 +1608,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="K2" t="s">
-        <v>219</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1271,22 +1640,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1297,31 +1666,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1332,31 +1701,31 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="K5" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1367,28 +1736,28 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="K6" t="s">
-        <v>222</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1399,31 +1768,31 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1434,31 +1803,31 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="K8" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1469,31 +1838,31 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="K9" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1504,31 +1873,31 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="K10" t="s">
-        <v>226</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1539,31 +1908,31 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="K11" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1574,31 +1943,31 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="J12" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="K12" t="s">
-        <v>228</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1609,31 +1978,31 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J13" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="K13" t="s">
-        <v>229</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1641,34 +2010,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="K14" t="s">
-        <v>230</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1676,34 +2045,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="K15" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1714,31 +2083,31 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J16" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="K16" t="s">
-        <v>232</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1749,28 +2118,31 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>195</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="K17" t="s">
-        <v>233</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1778,34 +2150,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="K18" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1813,34 +2185,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="K19" t="s">
-        <v>235</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1848,34 +2220,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="K20" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1886,31 +2258,31 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="K21" t="s">
-        <v>237</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1921,31 +2293,31 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1956,31 +2328,31 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1991,31 +2363,31 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I24" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2026,31 +2398,31 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I25" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2061,31 +2433,31 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2096,31 +2468,31 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2131,31 +2503,31 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2166,31 +2538,31 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s">
-        <v>245</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2201,31 +2573,31 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="I30" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="K30" t="s">
-        <v>246</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2236,31 +2608,28 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I31" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2271,31 +2640,31 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H32" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I32" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>248</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2306,28 +2675,31 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I33" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2338,31 +2710,31 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I34" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>250</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2373,31 +2745,31 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="G35" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="J35" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2408,31 +2780,28 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I36" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="J36" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="K36" t="s">
-        <v>252</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2443,31 +2812,31 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="F37" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="J37" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2478,28 +2847,31 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>178</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J38" t="s">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="K38" t="s">
-        <v>254</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2510,31 +2882,28 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I39" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J39" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="K39" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2545,31 +2914,28 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I40" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="J40" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s">
-        <v>256</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2580,28 +2946,28 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I41" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J41" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="K41" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2612,28 +2978,31 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="G42" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="J42" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
       <c r="K42" t="s">
-        <v>258</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2644,28 +3013,31 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
+        <v>190</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I43" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="J43" t="s">
-        <v>204</v>
+        <v>271</v>
       </c>
       <c r="K43" t="s">
-        <v>259</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2676,31 +3048,31 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I44" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="J44" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="K44" t="s">
-        <v>260</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2711,31 +3083,31 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I45" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="J45" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="K45" t="s">
-        <v>261</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2746,31 +3118,31 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I46" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="J46" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="K46" t="s">
-        <v>262</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2781,31 +3153,31 @@
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="J47" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="K47" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2816,31 +3188,28 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I48" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="J48" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="K48" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2851,31 +3220,28 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I49" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="J49" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="K49" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2886,28 +3252,31 @@
         <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="G50" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I50" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J50" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="K50" t="s">
-        <v>266</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2918,28 +3287,31 @@
         <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>127</v>
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>189</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I51" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="J51" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="K51" t="s">
-        <v>267</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2950,31 +3322,31 @@
         <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I52" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J52" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="K52" t="s">
-        <v>268</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2985,31 +3357,31 @@
         <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I53" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="J53" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="K53" t="s">
-        <v>269</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3020,31 +3392,31 @@
         <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="I54" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="J54" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="K54" t="s">
-        <v>270</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3055,31 +3427,31 @@
         <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I55" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="J55" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="K55" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3090,31 +3462,31 @@
         <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="H56" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="I56" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="J56" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="K56" t="s">
-        <v>272</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3125,54 +3497,1031 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="G57" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="I57" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="J57" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="K57" t="s">
-        <v>273</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>56</v>
       </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
       <c r="C58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" t="s">
+        <v>212</v>
+      </c>
+      <c r="G58" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" t="s">
+        <v>214</v>
+      </c>
+      <c r="I58" t="s">
+        <v>222</v>
+      </c>
+      <c r="J58" t="s">
+        <v>286</v>
+      </c>
+      <c r="K58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="D58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" t="s">
-        <v>129</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" t="s">
-        <v>108</v>
-      </c>
-      <c r="H58" t="s">
-        <v>108</v>
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" t="s">
+        <v>214</v>
+      </c>
+      <c r="H59" t="s">
+        <v>214</v>
+      </c>
+      <c r="I59" t="s">
+        <v>222</v>
+      </c>
+      <c r="J59" t="s">
+        <v>287</v>
+      </c>
+      <c r="K59" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" t="s">
+        <v>214</v>
+      </c>
+      <c r="H60" t="s">
+        <v>217</v>
+      </c>
+      <c r="I60" t="s">
+        <v>222</v>
+      </c>
+      <c r="J60" t="s">
+        <v>288</v>
+      </c>
+      <c r="K60" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61" t="s">
+        <v>212</v>
+      </c>
+      <c r="H61" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" t="s">
+        <v>222</v>
+      </c>
+      <c r="J61" t="s">
+        <v>289</v>
+      </c>
+      <c r="K61" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" t="s">
+        <v>216</v>
+      </c>
+      <c r="G62" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" t="s">
+        <v>214</v>
+      </c>
+      <c r="I62" t="s">
+        <v>222</v>
+      </c>
+      <c r="J62" t="s">
+        <v>290</v>
+      </c>
+      <c r="K62" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" t="s">
+        <v>212</v>
+      </c>
+      <c r="G63" t="s">
+        <v>212</v>
+      </c>
+      <c r="H63" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63" t="s">
+        <v>226</v>
+      </c>
+      <c r="J63" t="s">
+        <v>291</v>
+      </c>
+      <c r="K63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" t="s">
+        <v>214</v>
+      </c>
+      <c r="I64" t="s">
+        <v>225</v>
+      </c>
+      <c r="J64" t="s">
+        <v>292</v>
+      </c>
+      <c r="K64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" t="s">
+        <v>227</v>
+      </c>
+      <c r="J65" t="s">
+        <v>293</v>
+      </c>
+      <c r="K65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" t="s">
+        <v>183</v>
+      </c>
+      <c r="E66" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" t="s">
+        <v>212</v>
+      </c>
+      <c r="H66" t="s">
+        <v>214</v>
+      </c>
+      <c r="I66" t="s">
+        <v>222</v>
+      </c>
+      <c r="J66" t="s">
+        <v>294</v>
+      </c>
+      <c r="K66" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" t="s">
+        <v>212</v>
+      </c>
+      <c r="G67" t="s">
+        <v>212</v>
+      </c>
+      <c r="H67" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" t="s">
+        <v>222</v>
+      </c>
+      <c r="J67" t="s">
+        <v>295</v>
+      </c>
+      <c r="K67" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" t="s">
+        <v>213</v>
+      </c>
+      <c r="G68" t="s">
+        <v>213</v>
+      </c>
+      <c r="H68" t="s">
+        <v>214</v>
+      </c>
+      <c r="I68" t="s">
+        <v>224</v>
+      </c>
+      <c r="J68" t="s">
+        <v>296</v>
+      </c>
+      <c r="K68" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" t="s">
+        <v>213</v>
+      </c>
+      <c r="G69" t="s">
+        <v>212</v>
+      </c>
+      <c r="H69" t="s">
+        <v>214</v>
+      </c>
+      <c r="I69" t="s">
+        <v>227</v>
+      </c>
+      <c r="J69" t="s">
+        <v>297</v>
+      </c>
+      <c r="K69" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+      <c r="G70" t="s">
+        <v>213</v>
+      </c>
+      <c r="H70" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" t="s">
+        <v>222</v>
+      </c>
+      <c r="J70" t="s">
+        <v>298</v>
+      </c>
+      <c r="K70" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" t="s">
+        <v>218</v>
+      </c>
+      <c r="G71" t="s">
+        <v>212</v>
+      </c>
+      <c r="H71" t="s">
+        <v>214</v>
+      </c>
+      <c r="I71" t="s">
+        <v>222</v>
+      </c>
+      <c r="J71" t="s">
+        <v>299</v>
+      </c>
+      <c r="K71" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" t="s">
+        <v>216</v>
+      </c>
+      <c r="G72" t="s">
+        <v>216</v>
+      </c>
+      <c r="H72" t="s">
+        <v>214</v>
+      </c>
+      <c r="I72" t="s">
+        <v>222</v>
+      </c>
+      <c r="J72" t="s">
+        <v>300</v>
+      </c>
+      <c r="K72" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G73" t="s">
+        <v>212</v>
+      </c>
+      <c r="H73" t="s">
+        <v>214</v>
+      </c>
+      <c r="I73" t="s">
+        <v>222</v>
+      </c>
+      <c r="J73" t="s">
+        <v>301</v>
+      </c>
+      <c r="K73" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" t="s">
+        <v>212</v>
+      </c>
+      <c r="G74" t="s">
+        <v>212</v>
+      </c>
+      <c r="H74" t="s">
+        <v>214</v>
+      </c>
+      <c r="I74" t="s">
+        <v>222</v>
+      </c>
+      <c r="J74" t="s">
+        <v>302</v>
+      </c>
+      <c r="K74" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" t="s">
+        <v>212</v>
+      </c>
+      <c r="G75" t="s">
+        <v>212</v>
+      </c>
+      <c r="H75" t="s">
+        <v>214</v>
+      </c>
+      <c r="I75" t="s">
+        <v>222</v>
+      </c>
+      <c r="J75" t="s">
+        <v>303</v>
+      </c>
+      <c r="K75" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" t="s">
+        <v>207</v>
+      </c>
+      <c r="F76" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" t="s">
+        <v>212</v>
+      </c>
+      <c r="H76" t="s">
+        <v>214</v>
+      </c>
+      <c r="I76" t="s">
+        <v>222</v>
+      </c>
+      <c r="J76" t="s">
+        <v>304</v>
+      </c>
+      <c r="K76" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" t="s">
+        <v>212</v>
+      </c>
+      <c r="H77" t="s">
+        <v>217</v>
+      </c>
+      <c r="I77" t="s">
+        <v>226</v>
+      </c>
+      <c r="J77" t="s">
+        <v>305</v>
+      </c>
+      <c r="K77" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78" t="s">
+        <v>214</v>
+      </c>
+      <c r="G78" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" t="s">
+        <v>214</v>
+      </c>
+      <c r="I78" t="s">
+        <v>222</v>
+      </c>
+      <c r="J78" t="s">
+        <v>306</v>
+      </c>
+      <c r="K78" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" t="s">
+        <v>212</v>
+      </c>
+      <c r="G79" t="s">
+        <v>212</v>
+      </c>
+      <c r="H79" t="s">
+        <v>214</v>
+      </c>
+      <c r="I79" t="s">
+        <v>223</v>
+      </c>
+      <c r="J79" t="s">
+        <v>307</v>
+      </c>
+      <c r="K79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" t="s">
+        <v>189</v>
+      </c>
+      <c r="F80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G80" t="s">
+        <v>212</v>
+      </c>
+      <c r="H80" t="s">
+        <v>214</v>
+      </c>
+      <c r="I80" t="s">
+        <v>222</v>
+      </c>
+      <c r="J80" t="s">
+        <v>308</v>
+      </c>
+      <c r="K80" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" t="s">
+        <v>166</v>
+      </c>
+      <c r="E81" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" t="s">
+        <v>218</v>
+      </c>
+      <c r="G81" t="s">
+        <v>212</v>
+      </c>
+      <c r="H81" t="s">
+        <v>213</v>
+      </c>
+      <c r="I81" t="s">
+        <v>231</v>
+      </c>
+      <c r="J81" t="s">
+        <v>309</v>
+      </c>
+      <c r="K81" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" t="s">
+        <v>213</v>
+      </c>
+      <c r="G82" t="s">
+        <v>213</v>
+      </c>
+      <c r="H82" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" t="s">
+        <v>222</v>
+      </c>
+      <c r="J82" t="s">
+        <v>310</v>
+      </c>
+      <c r="K82" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" t="s">
+        <v>195</v>
+      </c>
+      <c r="F83" t="s">
+        <v>213</v>
+      </c>
+      <c r="G83" t="s">
+        <v>212</v>
+      </c>
+      <c r="H83" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" t="s">
+        <v>223</v>
+      </c>
+      <c r="J83" t="s">
+        <v>311</v>
+      </c>
+      <c r="K83" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" t="s">
+        <v>181</v>
+      </c>
+      <c r="E84" t="s">
+        <v>189</v>
+      </c>
+      <c r="F84" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" t="s">
+        <v>216</v>
+      </c>
+      <c r="H84" t="s">
+        <v>214</v>
+      </c>
+      <c r="I84" t="s">
+        <v>226</v>
+      </c>
+      <c r="J84" t="s">
+        <v>312</v>
+      </c>
+      <c r="K84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" t="s">
+        <v>212</v>
+      </c>
+      <c r="G85" t="s">
+        <v>212</v>
+      </c>
+      <c r="H85" t="s">
+        <v>217</v>
+      </c>
+      <c r="I85" t="s">
+        <v>227</v>
+      </c>
+      <c r="J85" t="s">
+        <v>313</v>
+      </c>
+      <c r="K85" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" t="s">
+        <v>188</v>
+      </c>
+      <c r="F86" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
